--- a/separarRelatorio/separarNeotin.xlsx
+++ b/separarRelatorio/separarNeotin.xlsx
@@ -20,7 +20,7 @@
     <t>CISBAF x Marque fácil</t>
   </si>
   <si>
-    <t>Filtros aplicados: Modelo: Analitico | Visualização: MUNICIPIO | Agrupamento: Municipio | Situação: AGENDADO, REALIZADO | Prestadores: 122 | Período: 14/12/2025 a 19/01/2026</t>
+    <t>Filtros aplicados: Modelo: Analitico | Visualização: MUNICIPIO | Agrupamento: Municipio | Situação: VALIDADO | Prestadores: 122 | Período: 15/12/2025 a 19/01/2026</t>
   </si>
   <si>
     <t>MUNICIPIO: RJ - Belford Roxo</t>
@@ -110,51 +110,51 @@
     <t>MUNICIPIO: RJ - Duque de Caxias</t>
   </si>
   <si>
+    <t>BERNARDO GUILHERME SOUZA DOS SANTOS</t>
+  </si>
+  <si>
+    <t>06/09/2019</t>
+  </si>
+  <si>
+    <t>ESTHER LEMOS VIEIRA</t>
+  </si>
+  <si>
+    <t>01/09/2016</t>
+  </si>
+  <si>
+    <t>GUSTAVO MENDES PEREIRA</t>
+  </si>
+  <si>
+    <t>12/06/2016</t>
+  </si>
+  <si>
+    <t>ANA SOPHIA GOMES DE SOUZA</t>
+  </si>
+  <si>
+    <t>04/01/2019</t>
+  </si>
+  <si>
     <t>GABRIEL LUCAS HEGENDORNE ALMEIDA</t>
   </si>
   <si>
     <t>15/02/2016</t>
   </si>
   <si>
-    <t>BERNARDO GUILHERME SOUZA DOS SANTOS</t>
-  </si>
-  <si>
-    <t>06/09/2019</t>
-  </si>
-  <si>
-    <t>ESTHER LEMOS VIEIRA</t>
-  </si>
-  <si>
-    <t>01/09/2016</t>
-  </si>
-  <si>
-    <t>GUSTAVO MENDES PEREIRA</t>
-  </si>
-  <si>
-    <t>12/06/2016</t>
-  </si>
-  <si>
-    <t>ANA SOPHIA GOMES DE SOUZA</t>
-  </si>
-  <si>
-    <t>04/01/2019</t>
-  </si>
-  <si>
     <t>22/12/2025 15:00</t>
   </si>
   <si>
+    <t>THAYLLA DA SILVA DOS SANTOS</t>
+  </si>
+  <si>
+    <t>12/07/2012</t>
+  </si>
+  <si>
     <t>MIRELLA OLIVEIRA CARDOSO SILVA</t>
   </si>
   <si>
     <t>03/10/2020</t>
   </si>
   <si>
-    <t>THAYLLA DA SILVA DOS SANTOS</t>
-  </si>
-  <si>
-    <t>12/07/2012</t>
-  </si>
-  <si>
     <t>07/01/2026 08:00</t>
   </si>
   <si>
@@ -173,18 +173,18 @@
     <t>MUNICIPIO: RJ - Itaguaí</t>
   </si>
   <si>
+    <t>NICKOLAS DA SILVA LOURENCO</t>
+  </si>
+  <si>
+    <t>03/05/2014</t>
+  </si>
+  <si>
     <t>ISABELLA LIMA DOMINGOS DA SILVA</t>
   </si>
   <si>
     <t>27/11/2015</t>
   </si>
   <si>
-    <t>NICKOLAS DA SILVA LOURENCO</t>
-  </si>
-  <si>
-    <t>03/05/2014</t>
-  </si>
-  <si>
     <t>MIGUEL BARBOSA SIMAO SCHNEIDER</t>
   </si>
   <si>
@@ -269,16 +269,28 @@
     <t>09/12/2013</t>
   </si>
   <si>
+    <t>GIOVANNA DA COSTA CASTILHO</t>
+  </si>
+  <si>
+    <t>04/10/2018</t>
+  </si>
+  <si>
     <t>LUIZ FELIPE ZARANZA DA SILVA</t>
   </si>
   <si>
     <t>23/03/2021</t>
   </si>
   <si>
-    <t>GIOVANNA DA COSTA CASTILHO</t>
-  </si>
-  <si>
-    <t>04/10/2018</t>
+    <t>ORQUIDOPEXIA BILATERAL - PEDIATRICO</t>
+  </si>
+  <si>
+    <t>R$ 6.772,46</t>
+  </si>
+  <si>
+    <t>R$ 385,32</t>
+  </si>
+  <si>
+    <t>R$ 7.157,78</t>
   </si>
   <si>
     <t>JOSE BENICIO TOLEDO</t>
@@ -287,18 +299,6 @@
     <t>09/07/2024</t>
   </si>
   <si>
-    <t>ORQUIDOPEXIA BILATERAL - PEDIATRICO</t>
-  </si>
-  <si>
-    <t>R$ 6.772,46</t>
-  </si>
-  <si>
-    <t>R$ 385,32</t>
-  </si>
-  <si>
-    <t>R$ 7.157,78</t>
-  </si>
-  <si>
     <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
   </si>
   <si>
@@ -323,13 +323,13 @@
     <t>R$ 4.850,00</t>
   </si>
   <si>
-    <t>R$ 24.459,95</t>
-  </si>
-  <si>
-    <t>R$ 2.283,24</t>
-  </si>
-  <si>
-    <t>R$ 26.743,19</t>
+    <t>R$ 31.232,41</t>
+  </si>
+  <si>
+    <t>R$ 2.668,56</t>
+  </si>
+  <si>
+    <t>R$ 33.900,97</t>
   </si>
   <si>
     <t>MUNICIPIO: RJ - Nilópolis</t>
@@ -401,7 +401,7 @@
     <t>Total regional</t>
   </si>
   <si>
-    <t>R$ 128.049,80</t>
+    <t>R$ 134.822,26</t>
   </si>
   <si>
     <t>Total contraste</t>
@@ -413,13 +413,13 @@
     <t>Total valor SUS</t>
   </si>
   <si>
-    <t>R$ 19.148,43</t>
+    <t>R$ 19.533,75</t>
   </si>
   <si>
     <t>Total valor geral</t>
   </si>
   <si>
-    <t>R$ 147.198,23</t>
+    <t>R$ 154.356,01</t>
   </si>
 </sst>
 </file>
@@ -900,10 +900,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J73"/>
+  <dimension ref="A1:J74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="J73" sqref="J73"/>
+      <selection activeCell="J74" sqref="J74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1402,10 +1402,10 @@
         <v>47</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>22</v>
@@ -1434,10 +1434,10 @@
         <v>47</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>22</v>
@@ -1466,10 +1466,10 @@
         <v>47</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>22</v>
@@ -1498,10 +1498,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>22</v>
@@ -1759,10 +1759,10 @@
         <v>62</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>22</v>
@@ -1823,10 +1823,10 @@
         <v>63</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D36" s="11" t="s">
         <v>22</v>
@@ -2145,22 +2145,22 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="E47" s="7">
         <v>1</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="G47" s="9" t="s">
         <v>18</v>
@@ -2169,10 +2169,10 @@
         <v>18</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -2180,19 +2180,19 @@
         <v>68</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="E48" s="10">
         <v>1</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="G48" s="12" t="s">
         <v>18</v>
@@ -2201,10 +2201,10 @@
         <v>18</v>
       </c>
       <c r="I48" s="12" t="s">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="J48" s="12" t="s">
-        <v>93</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -2212,19 +2212,19 @@
         <v>68</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E49" s="7">
         <v>1</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G49" s="9" t="s">
         <v>18</v>
@@ -2233,10 +2233,10 @@
         <v>18</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="J49" s="9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -2244,593 +2244,625 @@
         <v>68</v>
       </c>
       <c r="B50" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E50" s="10">
+        <v>1</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H50" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I50" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="J50" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E51" s="7">
+        <v>1</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I51" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="J51" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E52" s="14">
+        <v>11</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="G52" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H52" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I52" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="J52" s="13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J54" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E55" s="7">
+        <v>1</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I55" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J55" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E56" s="10">
+        <v>1</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G56" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H56" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I56" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J56" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E57" s="14">
+        <v>2</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G57" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H57" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I57" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J57" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I59" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J59" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E60" s="7">
+        <v>1</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G60" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H60" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I60" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="J60" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E61" s="14">
+        <v>1</v>
+      </c>
+      <c r="F61" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="G61" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H61" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I61" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="J61" s="13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I63" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J63" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E64" s="7">
+        <v>1</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H64" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I64" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="J64" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D65" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="E65" s="10">
+        <v>1</v>
+      </c>
+      <c r="F65" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="D50" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="E50" s="10">
-        <v>1</v>
-      </c>
-      <c r="F50" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="G50" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H50" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I50" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="J50" s="12" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="13" t="s">
+      <c r="G65" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H65" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I65" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="J65" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E51" s="14">
+      <c r="E66" s="14">
+        <v>2</v>
+      </c>
+      <c r="F66" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G66" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H66" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I66" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="J66" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H68" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F51" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G51" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H51" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I51" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="J51" s="13" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H53" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I53" s="6" t="s">
+      <c r="I68" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J53" s="6" t="s">
+      <c r="J68" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="D54" s="8" t="s">
+    <row r="69" spans="1:10">
+      <c r="A69" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D69" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E54" s="7">
-        <v>1</v>
-      </c>
-      <c r="F54" s="9" t="s">
+      <c r="E69" s="7">
+        <v>1</v>
+      </c>
+      <c r="F69" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G54" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H54" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I54" s="9" t="s">
+      <c r="G69" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H69" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I69" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J54" s="9" t="s">
+      <c r="J69" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="D55" s="11" t="s">
+    <row r="70" spans="1:10">
+      <c r="A70" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D70" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E55" s="10">
-        <v>1</v>
-      </c>
-      <c r="F55" s="12" t="s">
+      <c r="E70" s="10">
+        <v>1</v>
+      </c>
+      <c r="F70" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G55" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H55" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I55" s="12" t="s">
+      <c r="G70" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H70" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I70" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="J55" s="12" t="s">
+      <c r="J70" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
-      <c r="A56" s="13" t="s">
+    <row r="71" spans="1:10">
+      <c r="A71" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E56" s="14">
+      <c r="E71" s="14">
         <v>2</v>
       </c>
-      <c r="F56" s="13" t="s">
+      <c r="F71" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G56" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H56" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I56" s="13" t="s">
+      <c r="G71" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H71" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I71" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J56" s="13" t="s">
+      <c r="J71" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
-      <c r="A57" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G58" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H58" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I58" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J58" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E59" s="7">
-        <v>1</v>
-      </c>
-      <c r="F59" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="G59" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H59" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I59" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="J59" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E60" s="14">
-        <v>1</v>
-      </c>
-      <c r="F60" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="G60" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H60" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I60" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="J60" s="13" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
-      <c r="A61" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
-    </row>
-    <row r="62" spans="1:10">
-      <c r="A62" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F62" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G62" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H62" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I62" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J62" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10">
-      <c r="A63" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="E63" s="7">
-        <v>1</v>
-      </c>
-      <c r="F63" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="G63" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H63" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I63" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="J63" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10">
-      <c r="A64" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B64" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D64" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E64" s="10">
-        <v>1</v>
-      </c>
-      <c r="F64" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="G64" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H64" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I64" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="J64" s="12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10">
-      <c r="A65" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E65" s="14">
-        <v>2</v>
-      </c>
-      <c r="F65" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="G65" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H65" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I65" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="J65" s="13" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10">
-      <c r="A66" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
-      <c r="J66" s="3"/>
-    </row>
-    <row r="67" spans="1:10">
-      <c r="A67" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F67" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G67" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H67" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I67" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J67" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10">
-      <c r="A68" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E68" s="7">
-        <v>1</v>
-      </c>
-      <c r="F68" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G68" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H68" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I68" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J68" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10">
-      <c r="A69" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="B69" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="D69" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E69" s="10">
-        <v>1</v>
-      </c>
-      <c r="F69" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G69" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H69" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I69" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="J69" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10">
-      <c r="A70" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E70" s="14">
-        <v>2</v>
-      </c>
-      <c r="F70" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G70" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H70" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I70" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="J70" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10">
-      <c r="E72" s="14" t="s">
+    <row r="73" spans="1:10">
+      <c r="E73" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="F72" s="13" t="s">
+      <c r="F73" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="G72" s="13" t="s">
+      <c r="G73" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="H72" s="13" t="s">
+      <c r="H73" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="I72" s="13" t="s">
+      <c r="I73" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="J72" s="13" t="s">
+      <c r="J73" s="13" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
-      <c r="E73" s="15">
-        <v>41</v>
-      </c>
-      <c r="F73" s="16" t="s">
+    <row r="74" spans="1:10">
+      <c r="E74" s="15">
+        <v>42</v>
+      </c>
+      <c r="F74" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="G73" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H73" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="I73" s="16" t="s">
+      <c r="G74" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H74" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I74" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="J73" s="16" t="s">
+      <c r="J74" s="16" t="s">
         <v>134</v>
       </c>
     </row>
@@ -2844,15 +2876,15 @@
     <mergeCell ref="A27:J27"/>
     <mergeCell ref="A38:D38"/>
     <mergeCell ref="A39:J39"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A52:J52"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A57:J57"/>
-    <mergeCell ref="A60:D60"/>
-    <mergeCell ref="A61:J61"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A66:J66"/>
-    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A53:J53"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A58:J58"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="A62:J62"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="A67:J67"/>
+    <mergeCell ref="A71:D71"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
